--- a/WorkBot/main/backend/orders/OrderFiles/Ithaca Bakery/Ithaca Bakery_TRIPHAMMER_20250228.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/Ithaca Bakery/Ithaca Bakery_TRIPHAMMER_20250228.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1472,6 +1472,56 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Lentz</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Oats</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>43.94</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>43.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Flour - Millers Choice</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/WorkBot/main/backend/orders/OrderFiles/Ithaca Bakery/Ithaca Bakery_TRIPHAMMER_20250228.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/Ithaca Bakery/Ithaca Bakery_TRIPHAMMER_20250228.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1522,6 +1522,83 @@
         </is>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>128HD16BULK</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Container - HD Deli (16oz)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>128HD32BULK</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Container - HD Deli (32oz)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Mop Head Cut (White)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
